--- a/medicine/Mort/Cimetière_de_Noradouz/Cimetière_de_Noradouz.xlsx
+++ b/medicine/Mort/Cimetière_de_Noradouz/Cimetière_de_Noradouz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Noradouz</t>
+          <t>Cimetière_de_Noradouz</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Noradouz (en arménien Նորատուսի գերեզմանատուն) est un cimetière arménien situé dans la communauté de Noradouz, en bordure du lac Sevan, en Arménie. Il est divisé en deux zones : un cimetière ancien comptant plusieurs centaines de khatchkars (ce qui en fait le plus grand cimetière de khatchkars d'Arménie), et un cimetière moderne.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Noradouz</t>
+          <t>Cimetière_de_Noradouz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière est situé sur le territoire de la communauté rurale de Noradouz, dans le marz de Gegharkunik[1], à 90 km au nord d'Erevan, la capitale arménienne, et sur la rive occidentale du lac Sevan[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière est situé sur le territoire de la communauté rurale de Noradouz, dans le marz de Gegharkunik, à 90 km au nord d'Erevan, la capitale arménienne, et sur la rive occidentale du lac Sevan.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Noradouz</t>
+          <t>Cimetière_de_Noradouz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,15 +556,17 @@
           <t>Cimetière de khatchkars</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière ancien compte 728 khatchkars du IXe / Xe au XVIe / XVIIe siècles[1],[3]. Un des grands cimetières de khatchkars avec notamment le cimetière de Djoulfa[4], il est le plus grand de l'Arménie moderne[1]. Le khatchkar le plus ancien est daté de 996[2], et le cimetière comprend également un ensemble remarquable de khatchkars tardifs[5].
-Une légende locale veut que les villageois, s'apprêtant à subir les assauts des troupes de Tamerlan, auraient muni les khatchkars de casques et d'épées ; de loin, ceux-ci auraient été pris pour des soldats, causant la fuite de l'ennemi[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière ancien compte 728 khatchkars du IXe / Xe au XVIe / XVIIe siècles,. Un des grands cimetières de khatchkars avec notamment le cimetière de Djoulfa, il est le plus grand de l'Arménie moderne. Le khatchkar le plus ancien est daté de 996, et le cimetière comprend également un ensemble remarquable de khatchkars tardifs.
+Une légende locale veut que les villageois, s'apprêtant à subir les assauts des troupes de Tamerlan, auraient muni les khatchkars de casques et d'épées ; de loin, ceux-ci auraient été pris pour des soldats, causant la fuite de l'ennemi.
 			Khatchkars.
 			Khatchkars.
 			Khatchkars.
 			Vue panoramique.
-On y trouve en outre d'anciennes pierres tombales sculptées[2].
+On y trouve en outre d'anciennes pierres tombales sculptées.
 			Pierre tombale représentant un laboureur.
 			Pierre tombale représentant un mariage.
 			Pierre tombale représentant un cavalier.
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Noradouz</t>
+          <t>Cimetière_de_Noradouz</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,9 +598,11 @@
           <t>Cimetière moderne</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette partie compte des tombes du XVIIIe siècle à l'époque actuelle[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette partie compte des tombes du XVIIIe siècle à l'époque actuelle.
 </t>
         </is>
       </c>
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Noradouz</t>
+          <t>Cimetière_de_Noradouz</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,9 +631,11 @@
           <t>Littérature</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le poète Serge Venturini, amoureux de l'Arménie, a écrit deux poèmes à propos du cimetière de Noradouz. Le premier : « Tu murmures des bribes de vers, tes lèvres chantent No — ra — douz… Tu chemines au hasard entre deux mondes. Les vivants et les morts te côtoient. Tu dialogues avec eux (…) »[6]. Un second poème, dans le même livre, dit ceci : « Dressé comme un khatchkar, je vis l'espace-temps d'un éclair sans cesse renouvelé, le temps d'un coup d'œil jeté contre, — toujours par-delà les ténèbres, vers la verte aurore boréale. Envahi par les voix chères, mes effrois, gouffres étoilés, moi droite stèle érigée, rivière debout dans la touffeur pesante de l'été, porte sous le gel et la neige. — Je crie, miroite d'éternité »[7].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le poète Serge Venturini, amoureux de l'Arménie, a écrit deux poèmes à propos du cimetière de Noradouz. Le premier : « Tu murmures des bribes de vers, tes lèvres chantent No — ra — douz… Tu chemines au hasard entre deux mondes. Les vivants et les morts te côtoient. Tu dialogues avec eux (…) ». Un second poème, dans le même livre, dit ceci : « Dressé comme un khatchkar, je vis l'espace-temps d'un éclair sans cesse renouvelé, le temps d'un coup d'œil jeté contre, — toujours par-delà les ténèbres, vers la verte aurore boréale. Envahi par les voix chères, mes effrois, gouffres étoilés, moi droite stèle érigée, rivière debout dans la touffeur pesante de l'été, porte sous le gel et la neige. — Je crie, miroite d'éternité ».</t>
         </is>
       </c>
     </row>
